--- a/AnnidaSyifaS.xlsx
+++ b/AnnidaSyifaS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED3F02E-7BDF-4D9B-8FBE-D86B507F0132}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A056AA-6201-4CCF-951C-82CE5159B4AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{36D90F38-E3AB-4FC7-9846-AB0E3836A113}"/>
   </bookViews>
@@ -172,7 +172,7 @@
 given bangku kayu taby
 when beli
 Then enter the cart
-and process check out</t>
+and process check out.</t>
   </si>
 </sst>
 </file>
@@ -616,7 +616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A52E265B-4CEC-4C7A-83C5-E5A2AA1B74B4}">
   <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
